--- a/public/Sample_assessments_short_questions_answers.xlsx
+++ b/public/Sample_assessments_short_questions_answers.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slicecarving\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="6165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="6168"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -94,11 +99,14 @@
       <t>Latent heat is the heat energy which has to be supplied to change the state of a substance. </t>
     </r>
   </si>
+  <si>
+    <t>question_type_six</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -166,6 +174,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,7 +450,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -450,18 +461,19 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,9 +486,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -489,8 +503,11 @@
       <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="E2" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -503,8 +520,11 @@
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="230.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -517,8 +537,11 @@
       <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="E4" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -531,8 +554,11 @@
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="E5" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -544,6 +570,9 @@
       </c>
       <c r="D6" s="5" t="s">
         <v>16</v>
+      </c>
+      <c r="E6" s="7">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/public/Sample_assessments_short_questions_answers.xlsx
+++ b/public/Sample_assessments_short_questions_answers.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slicecarving\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="6168"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="6165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -99,14 +94,11 @@
       <t>Latent heat is the heat energy which has to be supplied to change the state of a substance. </t>
     </r>
   </si>
-  <si>
-    <t>question_type_six</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -174,9 +166,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -450,7 +439,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -461,19 +450,18 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="38.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,11 +474,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -503,11 +489,8 @@
       <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7">
-        <v>6</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -520,11 +503,8 @@
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7">
-        <v>6</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="230.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -537,11 +517,8 @@
       <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7">
-        <v>6</v>
-      </c>
     </row>
-    <row r="5" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -554,11 +531,8 @@
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7">
-        <v>6</v>
-      </c>
     </row>
-    <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -570,9 +544,6 @@
       </c>
       <c r="D6" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="E6" s="7">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
